--- a/objectParadise50/objectParadise50.xlsx
+++ b/objectParadise50/objectParadise50.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="496">
   <si>
     <t>primeEquivalent58</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>Subject</t>
+  </si>
+  <si>
     <t>session</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>module</t>
   </si>
   <si>
+    <t>Structure</t>
+  </si>
+  <si>
     <t>advance</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>journal</t>
   </si>
   <si>
+    <t>Node</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
@@ -1264,6 +1273,9 @@
     <t>Sunday</t>
   </si>
   <si>
+    <t>Catalogue</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -1279,6 +1291,9 @@
     <t>function</t>
   </si>
   <si>
+    <t>Keyword</t>
+  </si>
+  <si>
     <t>adventure</t>
   </si>
   <si>
@@ -1292,6 +1307,9 @@
   </si>
   <si>
     <t>journey</t>
+  </si>
+  <si>
+    <t>Leaf</t>
   </si>
   <si>
     <t>mountain</t>
@@ -2480,59 +2498,65 @@
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="R4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W4" s="1"/>
     </row>
@@ -2543,57 +2567,57 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13">
         <v>1.0</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P5" s="13">
         <v>1.0</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -2604,57 +2628,57 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I6" s="18">
         <v>2.0</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P6" s="18">
         <v>2.0</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -2665,57 +2689,57 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -2726,57 +2750,57 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -2787,57 +2811,57 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -2848,57 +2872,57 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -2909,57 +2933,57 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -2970,57 +2994,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3031,57 +3055,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3092,57 +3116,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3153,57 +3177,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3214,57 +3238,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3275,57 +3299,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3336,57 +3360,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3397,57 +3421,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3458,57 +3482,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3519,57 +3543,57 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3580,57 +3604,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3641,57 +3665,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3702,57 +3726,57 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3763,57 +3787,57 @@
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3824,57 +3848,57 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="20" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -3885,57 +3909,57 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="20" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -3946,57 +3970,57 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4007,57 +4031,57 @@
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="20" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4068,185 +4092,191 @@
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="25" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="25" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24"/>
       <c r="R30" s="25" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" s="29"/>
+        <v>419</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>420</v>
+      </c>
       <c r="D31" s="30" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F31" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="J31" s="29"/>
+      <c r="J31" s="29" t="s">
+        <v>426</v>
+      </c>
       <c r="K31" s="30" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q31" s="29"/>
+        <v>419</v>
+      </c>
+      <c r="Q31" s="29" t="s">
+        <v>432</v>
+      </c>
       <c r="R31" s="30" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H32" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="I32" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>432</v>
-      </c>
       <c r="J32" s="34" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="O32" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="P32" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="P32" s="33" t="s">
-        <v>432</v>
-      </c>
       <c r="Q32" s="34" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4278,7 +4308,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4294,7 +4324,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4336,7 +4366,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4354,7 +4384,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4369,10 +4399,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4389,10 +4419,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4406,13 +4436,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4428,13 +4458,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4447,16 +4477,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4471,16 +4501,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4492,19 +4522,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4518,19 +4548,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="S40" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4541,22 +4571,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4569,22 +4599,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4594,25 +4624,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4622,50 +4652,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4675,25 +4705,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/objectParadise50/objectParadise50.xlsx
+++ b/objectParadise50/objectParadise50.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="502">
   <si>
     <t>primeEquivalent58</t>
   </si>
@@ -100,6 +100,9 @@
     <t>night</t>
   </si>
   <si>
+    <t>Method</t>
+  </si>
+  <si>
     <t>skeleton</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>light</t>
   </si>
   <si>
+    <t>Property</t>
+  </si>
+  <si>
     <t>card</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
     <t>log</t>
   </si>
   <si>
+    <t>Encrypt</t>
+  </si>
+  <si>
     <t>mushroom</t>
   </si>
   <si>
@@ -1225,6 +1234,9 @@
     <t>scene</t>
   </si>
   <si>
+    <t>Expression</t>
+  </si>
+  <si>
     <t>vibrant</t>
   </si>
   <si>
@@ -1240,6 +1252,9 @@
     <t>support</t>
   </si>
   <si>
+    <t>Attribute</t>
+  </si>
+  <si>
     <t>valve</t>
   </si>
   <si>
@@ -1253,6 +1268,9 @@
   </si>
   <si>
     <t>variety</t>
+  </si>
+  <si>
+    <t>Decrypt</t>
   </si>
   <si>
     <t>aerodynamic</t>
@@ -2565,59 +2583,65 @@
       <c r="B5" s="13">
         <v>1.0</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="13">
         <v>1.0</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="K5" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5" s="13">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="R5" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W5" s="1"/>
     </row>
@@ -2628,57 +2652,57 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I6" s="18">
         <v>2.0</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P6" s="18">
         <v>2.0</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -2689,57 +2713,57 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -2750,57 +2774,57 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -2811,57 +2835,57 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -2872,57 +2896,57 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -2933,57 +2957,57 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -2994,57 +3018,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3055,57 +3079,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3116,57 +3140,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3177,57 +3201,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3238,57 +3262,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3299,57 +3323,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3360,57 +3384,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3421,57 +3445,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3482,57 +3506,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3543,57 +3567,57 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3604,57 +3628,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3665,57 +3689,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3726,57 +3750,57 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3787,57 +3811,57 @@
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3848,57 +3872,57 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="20" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -3909,57 +3933,57 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="20" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -3970,57 +3994,57 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="20" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4031,57 +4055,57 @@
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="20" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4090,193 +4114,199 @@
       <c r="B30" s="23">
         <v>26.0</v>
       </c>
-      <c r="C30" s="24"/>
+      <c r="C30" s="24" t="s">
+        <v>407</v>
+      </c>
       <c r="D30" s="25" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="24" t="s">
+        <v>413</v>
+      </c>
       <c r="K30" s="25" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
-      <c r="Q30" s="24"/>
+      <c r="Q30" s="24" t="s">
+        <v>419</v>
+      </c>
       <c r="R30" s="25" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H31" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="I31" s="28" t="s">
-        <v>419</v>
-      </c>
       <c r="J31" s="29" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H32" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="I32" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>438</v>
-      </c>
       <c r="J32" s="34" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="O32" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="P32" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="P32" s="33" t="s">
-        <v>438</v>
-      </c>
       <c r="Q32" s="34" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4308,7 +4338,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4324,7 +4354,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4366,7 +4396,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4384,7 +4414,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4399,10 +4429,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4419,10 +4449,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4436,13 +4466,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4458,13 +4488,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4477,16 +4507,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4501,16 +4531,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4522,19 +4552,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4548,19 +4578,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4571,22 +4601,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4599,22 +4629,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4624,25 +4654,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4652,50 +4682,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4705,25 +4735,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/objectParadise50/objectParadise50.xlsx
+++ b/objectParadise50/objectParadise50.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="508">
   <si>
     <t>primeEquivalent58</t>
   </si>
@@ -154,6 +154,9 @@
     <t>manual</t>
   </si>
   <si>
+    <t>Mod</t>
+  </si>
+  <si>
     <t>nerve</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
     <t>cabin</t>
   </si>
   <si>
+    <t>Receipt</t>
+  </si>
+  <si>
     <t>quick</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
     <t>cube</t>
   </si>
   <si>
+    <t>Induct</t>
+  </si>
+  <si>
     <t>ace</t>
   </si>
   <si>
@@ -1189,6 +1198,9 @@
     <t>sphere</t>
   </si>
   <si>
+    <t>Anti</t>
+  </si>
+  <si>
     <t>bent</t>
   </si>
   <si>
@@ -1204,6 +1216,9 @@
     <t>boat</t>
   </si>
   <si>
+    <t>Moon</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
@@ -1217,6 +1232,9 @@
   </si>
   <si>
     <t>bit</t>
+  </si>
+  <si>
+    <t>Deuce</t>
   </si>
   <si>
     <t>raw</t>
@@ -2650,59 +2668,65 @@
       <c r="B6" s="18">
         <v>2.0</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="18">
         <v>2.0</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="K6" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6" s="18">
         <v>2.0</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="R6" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W6" s="1"/>
     </row>
@@ -2713,57 +2737,57 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -2774,57 +2798,57 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -2835,57 +2859,57 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
       <c r="Q9" s="19"/>
       <c r="R9" s="20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -2896,57 +2920,57 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -2957,57 +2981,57 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -3018,57 +3042,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3079,57 +3103,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3140,57 +3164,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3201,57 +3225,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3262,57 +3286,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3323,57 +3347,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3384,57 +3408,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3445,57 +3469,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3506,57 +3530,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3567,57 +3591,57 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3628,57 +3652,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3689,57 +3713,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3750,57 +3774,57 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3811,57 +3835,57 @@
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3872,57 +3896,57 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="20" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -3933,57 +3957,57 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="20" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -3994,57 +4018,57 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="20" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4053,59 +4077,65 @@
       <c r="B29" s="18">
         <v>25.0</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="D29" s="20" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
-      <c r="J29" s="19"/>
+      <c r="J29" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="K29" s="20" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
-      <c r="Q29" s="19"/>
+      <c r="Q29" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="R29" s="20" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4115,198 +4145,198 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H31" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="I31" s="28" t="s">
-        <v>425</v>
-      </c>
       <c r="J31" s="29" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H32" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="I32" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>444</v>
-      </c>
       <c r="J32" s="34" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="O32" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="P32" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="P32" s="33" t="s">
-        <v>444</v>
-      </c>
       <c r="Q32" s="34" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4338,7 +4368,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4354,7 +4384,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4396,7 +4426,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4414,7 +4444,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4429,10 +4459,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4449,10 +4479,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4466,13 +4496,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4488,13 +4518,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4507,16 +4537,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4531,16 +4561,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4552,19 +4582,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4578,19 +4608,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4601,22 +4631,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4629,22 +4659,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4654,25 +4684,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4682,50 +4712,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4735,25 +4765,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/objectParadise50/objectParadise50.xlsx
+++ b/objectParadise50/objectParadise50.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="526">
   <si>
     <t>primeEquivalent58</t>
   </si>
@@ -208,6 +208,9 @@
     <t>solid</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>palm</t>
   </si>
   <si>
@@ -223,6 +226,9 @@
     <t>team</t>
   </si>
   <si>
+    <t>Tertiary</t>
+  </si>
+  <si>
     <t>policy</t>
   </si>
   <si>
@@ -238,6 +244,9 @@
     <t>term</t>
   </si>
   <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
     <t>candle</t>
   </si>
   <si>
@@ -253,6 +262,9 @@
     <t>ideal</t>
   </si>
   <si>
+    <t>Condenser</t>
+  </si>
+  <si>
     <t>forehead</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>mask</t>
   </si>
   <si>
+    <t>Diode</t>
+  </si>
+  <si>
     <t>foreign</t>
   </si>
   <si>
@@ -283,6 +298,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>Transistor</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -298,6 +316,9 @@
     <t>tweet</t>
   </si>
   <si>
+    <t>Primitive</t>
+  </si>
+  <si>
     <t>retina</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t>jump</t>
   </si>
   <si>
+    <t>Compulsive</t>
+  </si>
+  <si>
     <t>orbit</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t>path</t>
   </si>
   <si>
+    <t>Associative</t>
+  </si>
+  <si>
     <t>hook</t>
   </si>
   <si>
@@ -1063,6 +1090,9 @@
     <t>ground</t>
   </si>
   <si>
+    <t>Graphical</t>
+  </si>
+  <si>
     <t>deodorant</t>
   </si>
   <si>
@@ -1078,6 +1108,9 @@
     <t>contrast</t>
   </si>
   <si>
+    <t>Imaginary</t>
+  </si>
+  <si>
     <t>distinct</t>
   </si>
   <si>
@@ -1093,6 +1126,9 @@
     <t>distance</t>
   </si>
   <si>
+    <t>Textual</t>
+  </si>
+  <si>
     <t>texture</t>
   </si>
   <si>
@@ -1108,6 +1144,9 @@
     <t>nest</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
     <t>thirst</t>
   </si>
   <si>
@@ -1123,6 +1162,9 @@
     <t>try</t>
   </si>
   <si>
+    <t>Classification</t>
+  </si>
+  <si>
     <t>trust</t>
   </si>
   <si>
@@ -1138,6 +1180,9 @@
     <t>thrust</t>
   </si>
   <si>
+    <t>Interface</t>
+  </si>
+  <si>
     <t>native</t>
   </si>
   <si>
@@ -1153,6 +1198,9 @@
     <t>genus</t>
   </si>
   <si>
+    <t>Sanctuary</t>
+  </si>
+  <si>
     <t>wet</t>
   </si>
   <si>
@@ -1168,6 +1216,9 @@
     <t>sight</t>
   </si>
   <si>
+    <t>Reserve</t>
+  </si>
+  <si>
     <t>set</t>
   </si>
   <si>
@@ -1181,6 +1232,9 @@
   </si>
   <si>
     <t>slide</t>
+  </si>
+  <si>
+    <t>Convention</t>
   </si>
   <si>
     <t>alien</t>
@@ -2735,59 +2789,65 @@
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="18">
         <v>3.0</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="K7" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P7" s="18">
         <v>3.0</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="R7" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U7" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="W7" s="1"/>
     </row>
@@ -2796,59 +2856,65 @@
       <c r="B8" s="18">
         <v>4.0</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D8" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I8" s="18">
         <v>4.0</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="K8" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P8" s="18">
         <v>4.0</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="R8" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="W8" s="1"/>
     </row>
@@ -2857,59 +2923,65 @@
       <c r="B9" s="18">
         <v>5.0</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I9" s="18">
         <v>5.0</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="K9" s="20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P9" s="18">
         <v>5.0</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="R9" s="20" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="W9" s="1"/>
     </row>
@@ -2920,57 +2992,57 @@
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="20" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="20" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -2981,57 +3053,57 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -3042,57 +3114,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3103,57 +3175,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3164,57 +3236,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3225,57 +3297,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3286,57 +3358,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3347,57 +3419,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3408,57 +3480,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3469,57 +3541,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3530,57 +3602,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3591,57 +3663,57 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3652,57 +3724,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3713,57 +3785,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3774,57 +3846,57 @@
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="20" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3835,57 +3907,57 @@
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="20" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="20" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3894,59 +3966,65 @@
       <c r="B26" s="18">
         <v>22.0</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>359</v>
+      </c>
       <c r="D26" s="20" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
-      <c r="J26" s="19"/>
+      <c r="J26" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="K26" s="20" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="19" t="s">
+        <v>371</v>
+      </c>
       <c r="R26" s="20" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -3955,59 +4033,65 @@
       <c r="B27" s="18">
         <v>23.0</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>377</v>
+      </c>
       <c r="D27" s="20" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="19" t="s">
+        <v>383</v>
+      </c>
       <c r="K27" s="20" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="19" t="s">
+        <v>389</v>
+      </c>
       <c r="R27" s="20" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -4016,59 +4100,65 @@
       <c r="B28" s="18">
         <v>24.0</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="D28" s="20" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
-      <c r="J28" s="19"/>
+      <c r="J28" s="19" t="s">
+        <v>401</v>
+      </c>
       <c r="K28" s="20" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
-      <c r="Q28" s="19"/>
+      <c r="Q28" s="19" t="s">
+        <v>407</v>
+      </c>
       <c r="R28" s="20" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4078,64 +4168,64 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4145,198 +4235,198 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4368,7 +4458,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4384,7 +4474,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4426,7 +4516,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4444,7 +4534,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4459,10 +4549,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4479,10 +4569,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4496,13 +4586,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4518,13 +4608,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4537,16 +4627,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4561,16 +4651,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4582,19 +4672,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4608,19 +4698,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4631,22 +4721,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4659,22 +4749,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4684,25 +4774,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4712,50 +4802,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4765,25 +4855,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/objectParadise50/objectParadise50.xlsx
+++ b/objectParadise50/objectParadise50.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="538">
   <si>
     <t>primeEquivalent58</t>
   </si>
@@ -370,6 +370,9 @@
     <t>change</t>
   </si>
   <si>
+    <t>Cube</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
@@ -385,6 +388,9 @@
     <t>serial</t>
   </si>
   <si>
+    <t>Grid</t>
+  </si>
+  <si>
     <t>spin</t>
   </si>
   <si>
@@ -400,6 +406,9 @@
     <t>shop</t>
   </si>
   <si>
+    <t>Bot</t>
+  </si>
+  <si>
     <t>wall</t>
   </si>
   <si>
@@ -415,6 +424,9 @@
     <t>logo</t>
   </si>
   <si>
+    <t>Species</t>
+  </si>
+  <si>
     <t>brow</t>
   </si>
   <si>
@@ -430,6 +442,9 @@
     <t>sign</t>
   </si>
   <si>
+    <t>Iron</t>
+  </si>
+  <si>
     <t>wave</t>
   </si>
   <si>
@@ -445,6 +460,9 @@
     <t>sine</t>
   </si>
   <si>
+    <t>Neuron</t>
+  </si>
+  <si>
     <t>query</t>
   </si>
   <si>
@@ -1000,6 +1018,9 @@
     <t>filter</t>
   </si>
   <si>
+    <t>Laser</t>
+  </si>
+  <si>
     <t>lift</t>
   </si>
   <si>
@@ -1015,6 +1036,9 @@
     <t>leap</t>
   </si>
   <si>
+    <t>Propeller</t>
+  </si>
+  <si>
     <t>rent</t>
   </si>
   <si>
@@ -1030,6 +1054,9 @@
     <t>leak</t>
   </si>
   <si>
+    <t>Crawler</t>
+  </si>
+  <si>
     <t>logic</t>
   </si>
   <si>
@@ -1045,6 +1072,9 @@
     <t>board</t>
   </si>
   <si>
+    <t>World</t>
+  </si>
+  <si>
     <t>scent</t>
   </si>
   <si>
@@ -1060,6 +1090,9 @@
     <t>context</t>
   </si>
   <si>
+    <t>Wide</t>
+  </si>
+  <si>
     <t>recent</t>
   </si>
   <si>
@@ -1073,6 +1106,9 @@
   </si>
   <si>
     <t>range</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
   <si>
     <t>balance</t>
@@ -2990,59 +3026,65 @@
       <c r="B10" s="18">
         <v>6.0</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I10" s="18">
         <v>6.0</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>125</v>
+      </c>
       <c r="K10" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" s="18">
         <v>6.0</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="R10" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V10" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W10" s="1"/>
     </row>
@@ -3051,59 +3093,65 @@
       <c r="B11" s="18">
         <v>7.0</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I11" s="18">
         <v>7.0</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="K11" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P11" s="18">
         <v>7.0</v>
       </c>
-      <c r="Q11" s="19"/>
+      <c r="Q11" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="R11" s="20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="W11" s="1"/>
     </row>
@@ -3114,57 +3162,57 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3175,57 +3223,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3236,57 +3284,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3297,57 +3345,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3358,57 +3406,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3419,57 +3467,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3480,57 +3528,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3541,57 +3589,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3602,57 +3650,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3663,57 +3711,57 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3724,57 +3772,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3785,57 +3833,57 @@
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="20" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3844,59 +3892,65 @@
       <c r="B24" s="18">
         <v>20.0</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>335</v>
+      </c>
       <c r="D24" s="20" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>341</v>
+      </c>
       <c r="K24" s="20" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
-      <c r="Q24" s="19"/>
+      <c r="Q24" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="R24" s="20" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3905,59 +3959,65 @@
       <c r="B25" s="18">
         <v>21.0</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>353</v>
+      </c>
       <c r="D25" s="20" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
-      <c r="J25" s="19"/>
+      <c r="J25" s="19" t="s">
+        <v>359</v>
+      </c>
       <c r="K25" s="20" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
-      <c r="Q25" s="19"/>
+      <c r="Q25" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="R25" s="20" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -3967,64 +4027,64 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -4034,64 +4094,64 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -4101,64 +4161,64 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4168,64 +4228,64 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4235,198 +4295,198 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="O31" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="P31" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="P31" s="28" t="s">
-        <v>449</v>
-      </c>
       <c r="Q31" s="29" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4458,7 +4518,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4474,7 +4534,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4516,7 +4576,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4534,7 +4594,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4549,10 +4609,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4569,10 +4629,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4586,13 +4646,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4608,13 +4668,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4627,16 +4687,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4651,16 +4711,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4672,19 +4732,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4698,19 +4758,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4721,22 +4781,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4749,22 +4809,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4774,25 +4834,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4802,50 +4862,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4855,25 +4915,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="W43" s="1"/>
     </row>

--- a/objectParadise50/objectParadise50.xlsx
+++ b/objectParadise50/objectParadise50.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="544">
   <si>
     <t>primeEquivalent58</t>
   </si>
@@ -478,6 +478,9 @@
     <t>shine</t>
   </si>
   <si>
+    <t>ABS</t>
+  </si>
+  <si>
     <t>tooth</t>
   </si>
   <si>
@@ -493,6 +496,9 @@
     <t>thin</t>
   </si>
   <si>
+    <t>DNA</t>
+  </si>
+  <si>
     <t>torque</t>
   </si>
   <si>
@@ -508,6 +514,9 @@
     <t>tiny</t>
   </si>
   <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t>essay</t>
   </si>
   <si>
@@ -973,6 +982,9 @@
     <t>crust</t>
   </si>
   <si>
+    <t>LCM</t>
+  </si>
+  <si>
     <t>guest</t>
   </si>
   <si>
@@ -988,6 +1000,9 @@
     <t>organ</t>
   </si>
   <si>
+    <t>HCF</t>
+  </si>
+  <si>
     <t>client</t>
   </si>
   <si>
@@ -1001,6 +1016,9 @@
   </si>
   <si>
     <t>due</t>
+  </si>
+  <si>
+    <t>Resultant</t>
   </si>
   <si>
     <t>vessel</t>
@@ -3160,59 +3178,65 @@
       <c r="B12" s="18">
         <v>8.0</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="D12" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I12" s="18">
         <v>8.0</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="K12" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P12" s="18">
         <v>8.0</v>
       </c>
-      <c r="Q12" s="19"/>
+      <c r="Q12" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="R12" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="V12" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="W12" s="1"/>
     </row>
@@ -3223,57 +3247,57 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I13" s="18">
         <v>9.0</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P13" s="18">
         <v>9.0</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="V13" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="W13" s="1"/>
     </row>
@@ -3284,57 +3308,57 @@
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I14" s="18">
         <v>10.0</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P14" s="18">
         <v>10.0</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="T14" s="21" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="V14" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="W14" s="1"/>
     </row>
@@ -3345,57 +3369,57 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I15" s="18">
         <v>11.0</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P15" s="18">
         <v>11.0</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="V15" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="W15" s="1"/>
     </row>
@@ -3406,57 +3430,57 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I16" s="18">
         <v>12.0</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P16" s="18">
         <v>12.0</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="U16" s="21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="V16" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="W16" s="1"/>
     </row>
@@ -3467,57 +3491,57 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I17" s="18">
         <v>13.0</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="20" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P17" s="18">
         <v>13.0</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="U17" s="21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="V17" s="22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="W17" s="1"/>
     </row>
@@ -3528,57 +3552,57 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I18" s="18">
         <v>14.0</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P18" s="18">
         <v>14.0</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="V18" s="22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="W18" s="1"/>
     </row>
@@ -3589,57 +3613,57 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I19" s="18">
         <v>15.0</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P19" s="18">
         <v>15.0</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="V19" s="22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="W19" s="1"/>
     </row>
@@ -3650,57 +3674,57 @@
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I20" s="18">
         <v>16.0</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P20" s="18">
         <v>16.0</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="T20" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V20" s="22" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="W20" s="1"/>
     </row>
@@ -3711,57 +3735,57 @@
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I21" s="18">
         <v>17.0</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P21" s="18">
         <v>17.0</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="V21" s="22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="W21" s="1"/>
     </row>
@@ -3772,57 +3796,57 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I22" s="18">
         <v>18.0</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P22" s="18">
         <v>18.0</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="V22" s="22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="W22" s="1"/>
     </row>
@@ -3831,59 +3855,65 @@
       <c r="B23" s="18">
         <v>19.0</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>323</v>
+      </c>
       <c r="D23" s="20" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I23" s="18">
         <v>19.0</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="K23" s="20" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M23" s="21" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P23" s="18">
         <v>19.0</v>
       </c>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="19" t="s">
+        <v>335</v>
+      </c>
       <c r="R23" s="20" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="V23" s="22" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="W23" s="1"/>
     </row>
@@ -3893,64 +3923,64 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="I24" s="18">
         <v>20.0</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P24" s="18">
         <v>20.0</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="R24" s="20" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="V24" s="22" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="W24" s="1"/>
     </row>
@@ -3960,64 +3990,64 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I25" s="18">
         <v>21.0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P25" s="18">
         <v>21.0</v>
       </c>
       <c r="Q25" s="19" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="R25" s="20" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="W25" s="1"/>
     </row>
@@ -4027,64 +4057,64 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I26" s="18">
         <v>22.0</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P26" s="18">
         <v>22.0</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="R26" s="20" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="V26" s="22" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="W26" s="1"/>
     </row>
@@ -4094,64 +4124,64 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I27" s="18">
         <v>23.0</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P27" s="18">
         <v>23.0</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="R27" s="20" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="V27" s="22" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="W27" s="1"/>
     </row>
@@ -4161,64 +4191,64 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="I28" s="18">
         <v>24.0</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P28" s="18">
         <v>24.0</v>
       </c>
       <c r="Q28" s="19" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="R28" s="20" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="U28" s="21" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="V28" s="22" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="W28" s="1"/>
     </row>
@@ -4228,64 +4258,64 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="I29" s="18">
         <v>25.0</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="P29" s="18">
         <v>25.0</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="V29" s="22" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="W29" s="1"/>
     </row>
@@ -4295,198 +4325,198 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="I30" s="23">
         <v>26.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P30" s="23">
         <v>26.0</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="V30" s="27" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="W30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H31" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="I31" s="28" t="s">
-        <v>461</v>
-      </c>
       <c r="J31" s="29" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="R31" s="30" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="S31" s="31" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="T31" s="31" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="V31" s="32" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="W31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H32" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="I32" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>480</v>
-      </c>
       <c r="J32" s="34" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="O32" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="P32" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="P32" s="33" t="s">
-        <v>480</v>
-      </c>
       <c r="Q32" s="34" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="W32" s="1"/>
     </row>
@@ -4518,7 +4548,7 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -4534,7 +4564,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -4576,7 +4606,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>4</v>
@@ -4594,7 +4624,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
       <c r="P36" s="40" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q36" s="41" t="s">
         <v>4</v>
@@ -4609,10 +4639,10 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D37" s="41" t="s">
         <v>5</v>
@@ -4629,10 +4659,10 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
       <c r="P37" s="13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="42" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="R37" s="41" t="s">
         <v>5</v>
@@ -4646,13 +4676,13 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="13" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>6</v>
@@ -4668,13 +4698,13 @@
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
       <c r="P38" s="13" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="Q38" s="43" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="R38" s="42" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="S38" s="41" t="s">
         <v>6</v>
@@ -4687,16 +4717,16 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>7</v>
@@ -4711,16 +4741,16 @@
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="13" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="S39" s="42" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="T39" s="41" t="s">
         <v>7</v>
@@ -4732,19 +4762,19 @@
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="13" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E40" s="46" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>8</v>
@@ -4758,19 +4788,19 @@
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="13" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="Q40" s="43" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T40" s="46" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="U40" s="41" t="s">
         <v>8</v>
@@ -4781,22 +4811,22 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="13" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E41" s="46" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F41" s="46" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H41" s="41" t="s">
         <v>9</v>
@@ -4809,22 +4839,22 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="13" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="S41" s="46" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T41" s="46" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="U41" s="46" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>9</v>
@@ -4834,25 +4864,25 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="47" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="36"/>
@@ -4862,50 +4892,50 @@
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="47" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Q42" s="48" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="S42" s="50" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="V42" s="51" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="33" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
@@ -4915,25 +4945,25 @@
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
       <c r="P43" s="33" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q43" s="52" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="R43" s="52" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="S43" s="52" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="T43" s="52" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="U43" s="52" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="V43" s="53" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="W43" s="1"/>
     </row>
